--- a/storage/download/YS质量分析上传数据模板.xlsx
+++ b/storage/download/YS质量分析上传数据模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -1490,122 +1490,110 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4">
+      <c r="C3" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4">
+      <c r="C4" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4">
+      <c r="C5" s="4">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4">
+      <c r="C6" s="4">
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4">
+      <c r="C7" s="4">
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4">
+      <c r="C8" s="4">
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4">
+      <c r="C9" s="4">
         <v>800</v>
       </c>
     </row>
@@ -1621,124 +1609,114 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4">
+      <c r="C3" s="4">
         <v>0.87</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4">
+      <c r="C4" s="4">
         <v>0.97</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4">
+      <c r="C5" s="4">
         <v>0.67</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4">
+      <c r="C6" s="4">
         <v>0.47</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4">
+      <c r="C7" s="4">
         <v>0.37</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4">
+      <c r="C8" s="4">
         <v>0.27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4">
+      <c r="C9" s="4">
         <v>0.17</v>
       </c>
     </row>
@@ -1753,123 +1731,111 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4">
+      <c r="C3" s="4">
         <v>0.87</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4">
+      <c r="C4" s="4">
         <v>0.97</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4">
+      <c r="C5" s="4">
         <v>0.67</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4">
+      <c r="C6" s="4">
         <v>0.47</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4">
+      <c r="C7" s="4">
         <v>0.37</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4">
+      <c r="C8" s="4">
         <v>0.27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4">
+      <c r="C9" s="4">
         <v>0.17</v>
       </c>
     </row>
@@ -1933,7 +1899,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">TODAY()</f>
-        <v>43810</v>
+        <v>43811</v>
       </c>
       <c r="D3" s="4">
         <v>0.87</v>
@@ -1948,7 +1914,7 @@
       </c>
       <c r="C4" s="7">
         <f t="shared" ref="C4:C9" ca="1" si="0">TODAY()</f>
-        <v>43810</v>
+        <v>43811</v>
       </c>
       <c r="D4" s="4">
         <v>0.97</v>
@@ -1963,7 +1929,7 @@
       </c>
       <c r="C5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43810</v>
+        <v>43811</v>
       </c>
       <c r="D5" s="4">
         <v>0.67</v>
@@ -1978,7 +1944,7 @@
       </c>
       <c r="C6" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43810</v>
+        <v>43811</v>
       </c>
       <c r="D6" s="4">
         <v>0.47</v>
@@ -1993,7 +1959,7 @@
       </c>
       <c r="C7" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43810</v>
+        <v>43811</v>
       </c>
       <c r="D7" s="4">
         <v>0.37</v>
@@ -2008,7 +1974,7 @@
       </c>
       <c r="C8" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43810</v>
+        <v>43811</v>
       </c>
       <c r="D8" s="4">
         <v>0.27</v>
@@ -2023,7 +1989,7 @@
       </c>
       <c r="C9" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43810</v>
+        <v>43811</v>
       </c>
       <c r="D9" s="4">
         <v>0.17</v>
@@ -2090,7 +2056,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">TODAY()</f>
-        <v>43810</v>
+        <v>43811</v>
       </c>
       <c r="D3" s="4">
         <v>0.87</v>
@@ -2105,7 +2071,7 @@
       </c>
       <c r="C4" s="7">
         <f t="shared" ref="C4:C9" ca="1" si="0">TODAY()</f>
-        <v>43810</v>
+        <v>43811</v>
       </c>
       <c r="D4" s="4">
         <v>0.97</v>
@@ -2120,7 +2086,7 @@
       </c>
       <c r="C5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43810</v>
+        <v>43811</v>
       </c>
       <c r="D5" s="4">
         <v>0.67</v>
@@ -2135,7 +2101,7 @@
       </c>
       <c r="C6" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43810</v>
+        <v>43811</v>
       </c>
       <c r="D6" s="4">
         <v>0.47</v>
@@ -2150,7 +2116,7 @@
       </c>
       <c r="C7" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43810</v>
+        <v>43811</v>
       </c>
       <c r="D7" s="4">
         <v>0.37</v>
@@ -2165,7 +2131,7 @@
       </c>
       <c r="C8" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43810</v>
+        <v>43811</v>
       </c>
       <c r="D8" s="4">
         <v>0.27</v>
@@ -2180,7 +2146,7 @@
       </c>
       <c r="C9" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>43810</v>
+        <v>43811</v>
       </c>
       <c r="D9" s="4">
         <v>0.17</v>
@@ -2189,6 +2155,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2197,124 +2164,114 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4">
+      <c r="C3" s="4">
         <v>0.87</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4">
+      <c r="C4" s="4">
         <v>0.97</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4">
+      <c r="C5" s="4">
         <v>0.67</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4">
+      <c r="C6" s="4">
         <v>0.47</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4">
+      <c r="C7" s="4">
         <v>0.37</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4">
+      <c r="C8" s="4">
         <v>0.27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4">
+      <c r="C9" s="4">
         <v>0.17</v>
       </c>
     </row>
@@ -2331,9 +2288,9 @@
   </sheetPr>
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
